--- a/test11.xlsx
+++ b/test11.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -519,7 +519,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>ИТОГО</t>
         </is>
